--- a/thermo_calibration.xlsx
+++ b/thermo_calibration.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria/Documents/InternetOfThings/Software-Engineering-of-Internet-of-Things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE09C73D-1599-C24B-AD7C-9AD681EAB068}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C4F023-DA64-2F40-946B-24D046C95DAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{BD8A5CAC-F659-A448-86F2-E933CF154474}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="room" sheetId="4" r:id="rId2"/>
-    <sheet name="in hand" sheetId="2" r:id="rId3"/>
-    <sheet name="room_raw data" sheetId="3" r:id="rId4"/>
-    <sheet name="in hand_raw data" sheetId="1" r:id="rId5"/>
+    <sheet name="frozen_device1" sheetId="7" r:id="rId2"/>
+    <sheet name="room_device1" sheetId="4" r:id="rId3"/>
+    <sheet name="hand_device1" sheetId="2" r:id="rId4"/>
+    <sheet name="frozen_device2" sheetId="9" r:id="rId5"/>
+    <sheet name="room_device2" sheetId="6" r:id="rId6"/>
+    <sheet name="hand_device2" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,273 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
-  <si>
-    <t>V : 765</t>
-  </si>
-  <si>
-    <t>T : 26.5</t>
-  </si>
-  <si>
-    <t>V : 759</t>
-  </si>
-  <si>
-    <t>T : 25.9</t>
-  </si>
-  <si>
-    <t>V : 769</t>
-  </si>
-  <si>
-    <t>T : 26.9</t>
-  </si>
-  <si>
-    <t>V : 755</t>
-  </si>
-  <si>
-    <t>T : 25.5</t>
-  </si>
-  <si>
-    <t>V : 756</t>
-  </si>
-  <si>
-    <t>T : 25.6</t>
-  </si>
-  <si>
-    <t>V : 770</t>
-  </si>
-  <si>
-    <t>T : 27.0</t>
-  </si>
-  <si>
-    <t>V : 751</t>
-  </si>
-  <si>
-    <t>T : 25.1</t>
-  </si>
-  <si>
-    <t>V : 774</t>
-  </si>
-  <si>
-    <t>T : 27.4</t>
-  </si>
-  <si>
-    <t>V : 773</t>
-  </si>
-  <si>
-    <t>T : 27.3</t>
-  </si>
-  <si>
-    <t>V : 763</t>
-  </si>
-  <si>
-    <t>T : 26.3</t>
-  </si>
-  <si>
-    <t>V : 762</t>
-  </si>
-  <si>
-    <t>T : 26.2</t>
-  </si>
-  <si>
-    <t>V : 784</t>
-  </si>
-  <si>
-    <t>T : 28.4</t>
-  </si>
-  <si>
-    <t>V : 768</t>
-  </si>
-  <si>
-    <t>T : 26.8</t>
-  </si>
-  <si>
-    <t>V : 757</t>
-  </si>
-  <si>
-    <t>T : 25.7</t>
-  </si>
-  <si>
-    <t>V : 779</t>
-  </si>
-  <si>
-    <t>T : 27.9</t>
-  </si>
-  <si>
-    <t>V : 767</t>
-  </si>
-  <si>
-    <t>T : 26.7</t>
-  </si>
-  <si>
-    <t>V : 761</t>
-  </si>
-  <si>
-    <t>T : 26.1</t>
-  </si>
-  <si>
-    <t>V : 752</t>
-  </si>
-  <si>
-    <t>T : 25.2</t>
-  </si>
-  <si>
-    <t>V : 749</t>
-  </si>
-  <si>
-    <t>T : 24.9</t>
-  </si>
-  <si>
-    <t>V : 750</t>
-  </si>
-  <si>
-    <t>T : 25.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>Real</t>
-  </si>
-  <si>
-    <t>V : 657</t>
-  </si>
-  <si>
-    <t>T : 15.7</t>
-  </si>
-  <si>
-    <t>V : 669</t>
-  </si>
-  <si>
-    <t>T : 16.9</t>
-  </si>
-  <si>
-    <t>V : 670</t>
-  </si>
-  <si>
-    <t>T : 17.0</t>
-  </si>
-  <si>
-    <t>V : 677</t>
-  </si>
-  <si>
-    <t>T : 17.7</t>
-  </si>
-  <si>
-    <t>V : 656</t>
-  </si>
-  <si>
-    <t>T : 15.6</t>
-  </si>
-  <si>
-    <t>V : 646</t>
-  </si>
-  <si>
-    <t>T : 14.6</t>
-  </si>
-  <si>
-    <t>V : 679</t>
-  </si>
-  <si>
-    <t>T : 17.9</t>
-  </si>
-  <si>
-    <t>V : 641</t>
-  </si>
-  <si>
-    <t>T : 14.1</t>
-  </si>
-  <si>
-    <t>V : 648</t>
-  </si>
-  <si>
-    <t>T : 14.8</t>
-  </si>
-  <si>
-    <t>V : 650</t>
-  </si>
-  <si>
-    <t>T : 15.0</t>
-  </si>
-  <si>
-    <t>V : 637</t>
-  </si>
-  <si>
-    <t>T : 13.7</t>
-  </si>
-  <si>
-    <t>V : 645</t>
-  </si>
-  <si>
-    <t>T : 14.5</t>
-  </si>
-  <si>
-    <t>V : 683</t>
-  </si>
-  <si>
-    <t>T : 18.3</t>
-  </si>
-  <si>
-    <t>V : 664</t>
-  </si>
-  <si>
-    <t>T : 16.4</t>
-  </si>
-  <si>
-    <t>V : 672</t>
-  </si>
-  <si>
-    <t>T : 17.2</t>
-  </si>
-  <si>
-    <t>V : 671</t>
-  </si>
-  <si>
-    <t>T : 17.1</t>
-  </si>
-  <si>
-    <t>V : 652</t>
-  </si>
-  <si>
-    <t>T : 15.2</t>
-  </si>
-  <si>
-    <t>V : 682</t>
-  </si>
-  <si>
-    <t>T : 18.2</t>
-  </si>
-  <si>
-    <t>V : 660</t>
-  </si>
-  <si>
-    <t>T : 16.0</t>
-  </si>
-  <si>
-    <t>V : 675</t>
-  </si>
-  <si>
-    <t>T : 17.5</t>
-  </si>
-  <si>
-    <t>V : 654</t>
-  </si>
-  <si>
-    <t>T : 15.4</t>
-  </si>
-  <si>
-    <t>V : 665</t>
-  </si>
-  <si>
-    <t>T : 16.5</t>
-  </si>
-  <si>
-    <t>V : 678</t>
-  </si>
-  <si>
-    <t>T : 17.8</t>
-  </si>
-  <si>
-    <t>V : 663</t>
-  </si>
-  <si>
-    <t>T : 16.3</t>
   </si>
   <si>
     <t>Pycom ave</t>
@@ -321,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -354,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,6 +125,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>device1 (dark</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> plastic)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -461,6 +229,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2150043744531933E-3"/>
+                  <c:y val="0.15386045494313216"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -493,30 +267,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$A$2:$A$3</c:f>
+              <c:f>Sheet5!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.8</c:v>
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$B$2:$B$3</c:f>
+              <c:f>Sheet5!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>660.92682926829264</c:v>
+                  <c:v>558.27586206896547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>762.9655172413793</c:v>
+                  <c:v>695.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785.96428571428567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,6 +305,422 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-71CB-6443-9757-89733761A311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="613087135"/>
+        <c:axId val="566836095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="613087135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566836095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566836095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613087135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>device2 (light</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> plastic)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2150043744531933E-3"/>
+                  <c:y val="0.15386045494313216"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$21:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>583.56097560975604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>678.14634146341461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>771.78048780487802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E2A-2041-B028-FD78CB1D540A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -786,6 +982,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1302,19 +1538,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1335,6 +2087,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA2C533-7016-794A-84EB-3887E5A58089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1640,48 +2430,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3D1F76-B87A-5E4E-B789-90608C48598E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>room!C2</f>
-        <v>19.399999999999999</v>
+        <f>frozen_device1!C2</f>
+        <v>-12</v>
       </c>
       <c r="B2">
-        <f>room!D2</f>
-        <v>660.92682926829264</v>
-      </c>
-      <c r="E2">
-        <f>SLOPE(A2:A3,B2:B3)</f>
-        <v>0.12152253470047142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <f>frozen_device1!D2</f>
+        <v>558.27586206896547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>'in hand'!C2</f>
-        <v>31.8</v>
+        <f>room_device1!C2</f>
+        <v>22.3</v>
       </c>
       <c r="B3">
-        <f>'in hand'!D2</f>
-        <v>762.9655172413793</v>
-      </c>
-      <c r="E3">
-        <f>SLOPE(B2:B3,A2:A3)</f>
-        <v>8.2289264494424721</v>
+        <f>room_device1!D2</f>
+        <v>695.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>hand_device1!C2</f>
+        <v>32.6</v>
+      </c>
+      <c r="B4">
+        <f>hand_device1!D2</f>
+        <v>785.96428571428567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>frozen_device2!C2</f>
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f>frozen_device2!D2</f>
+        <v>583.56097560975604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>room_device2!C2</f>
+        <v>21.6</v>
+      </c>
+      <c r="B22">
+        <f>room_device2!D2</f>
+        <v>678.14634146341461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>hand_device2!C2</f>
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <f>hand_device2!D2</f>
+        <v>771.78048780487802</v>
       </c>
     </row>
   </sheetData>
@@ -1691,11 +2521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C599BC-E709-CA42-852B-55AE2DCD73C0}">
-  <dimension ref="A1:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8C7671-8A4B-4744-905F-AC70C599473A}">
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,224 +2535,331 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C2">
-        <v>19.399999999999999</v>
+        <v>-12</v>
       </c>
       <c r="D2" s="1">
-        <f>AVERAGE(A1:A41)</f>
-        <v>660.92682926829264</v>
+        <f>AVERAGE(A1:A29)</f>
+        <v>558.27586206896547</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>641</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>645</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>646</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>646</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>648</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>648</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>648</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>650</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>652</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>654</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>654</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>654</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>656</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>656</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>656</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>656</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>657</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>660</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>663</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>664</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>665</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>669</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>669</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>669</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>670</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>671</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>671</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>671</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>672</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>672</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>675</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>677</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>677</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>678</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>679</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>679</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>682</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>683</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -1931,11 +2868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE5F960-B01F-D042-8FEF-93C31E03C0A5}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C599BC-E709-CA42-852B-55AE2DCD73C0}">
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,164 +2882,341 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>749</v>
+        <v>710</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>750</v>
+        <v>686</v>
       </c>
       <c r="C2">
-        <v>31.8</v>
+        <v>22.3</v>
       </c>
       <c r="D2" s="1">
-        <f>AVERAGE(A1:A29)</f>
-        <v>762.9655172413793</v>
+        <f>AVERAGE(A1:A40)</f>
+        <v>695.75</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>751</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>752</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>752</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>755</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>755</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>756</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>757</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>759</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>761</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>761</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>761</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>762</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>763</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>765</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>765</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>765</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>765</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>767</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>768</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>768</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>769</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>770</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>770</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>773</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>774</v>
+        <v>712</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>779</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>784</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -2111,423 +3225,340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBFAE17-6214-DA4B-8260-FB822372CAB8}">
-  <dimension ref="A1:A82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE5F960-B01F-D042-8FEF-93C31E03C0A5}">
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:A82"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>56</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>777</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>777</v>
+      </c>
+      <c r="C2">
+        <v>32.6</v>
+      </c>
+      <c r="D2" s="1">
+        <f>AVERAGE(A1:A28)</f>
+        <v>785.96428571428567</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
+      <c r="A17">
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>58</v>
+      <c r="A18">
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>59</v>
+      <c r="A19">
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>60</v>
+      <c r="A20">
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>61</v>
+      <c r="A21">
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>62</v>
+      <c r="A22">
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>63</v>
+      <c r="A23">
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>64</v>
+      <c r="A24">
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>65</v>
+      <c r="A25">
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>66</v>
+      <c r="A26">
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>57</v>
+      <c r="A27">
+        <v>764</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
+      <c r="A28">
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>67</v>
+      <c r="A29">
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>68</v>
+      <c r="A30">
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>69</v>
+      <c r="A31">
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>70</v>
+      <c r="A32">
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>71</v>
+      <c r="A33">
+        <v>764</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>72</v>
+      <c r="A34">
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>57</v>
+      <c r="A35">
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>58</v>
+      <c r="A36">
+        <v>791</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>71</v>
+      <c r="A37">
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>72</v>
+      <c r="A38">
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>51</v>
+      <c r="A39">
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>52</v>
+      <c r="A40">
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>43</v>
+      <c r="A41">
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>44</v>
+      <c r="A42">
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>73</v>
+      <c r="A43">
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>74</v>
+      <c r="A44">
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>47</v>
+      <c r="A45">
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>48</v>
+      <c r="A46">
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>71</v>
+      <c r="A47">
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>72</v>
+      <c r="A48">
+        <v>784</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>49</v>
+      <c r="A49">
+        <v>768</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>50</v>
+      <c r="A50">
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>49</v>
+      <c r="A51">
+        <v>764</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>50</v>
+      <c r="A52">
+        <v>806</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>43</v>
+      <c r="A53">
+        <v>812</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>44</v>
+      <c r="A54">
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>53</v>
+      <c r="A55">
+        <v>804</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>54</v>
+      <c r="A56">
+        <v>802</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>75</v>
+      <c r="A57">
+        <v>807</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>76</v>
+      <c r="A58">
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>77</v>
+      <c r="A59">
+        <v>764</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>78</v>
+      <c r="A60">
+        <v>791</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>79</v>
+      <c r="A61">
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>50</v>
+      <c r="A62">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -2536,303 +3567,1138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7196671-F4D4-0748-B17E-9CC0FC86B60D}">
-  <dimension ref="A2:A59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E7718B-EE2B-5F4E-8DA5-4421C1FE28F7}">
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A58" sqref="A2:A59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>646</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>652</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="D2" s="1">
+        <f>AVERAGE(A1:A41)</f>
+        <v>583.56097560975604</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17">
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18">
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19">
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
+      <c r="A20">
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
+      <c r="A21">
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
+      <c r="A22">
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
+      <c r="A23">
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="A24">
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>19</v>
+      <c r="A25">
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
+      <c r="A26">
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
+      <c r="A27">
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72541E9-BF07-0C45-9904-080C3D96BF7B}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>689</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>666</v>
+      </c>
+      <c r="C2">
+        <v>21.6</v>
+      </c>
+      <c r="D2" s="1">
+        <f>AVERAGE(A1:A41)</f>
+        <v>678.14634146341461</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>680</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F98B6F0-7A1C-624B-A60A-90528C9E1FCF}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>870</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>770</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <f>AVERAGE(A1:A41)</f>
+        <v>771.78048780487802</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>772</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
+      <c r="A30">
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>23</v>
+      <c r="A31">
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>24</v>
+      <c r="A32">
+        <v>769</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>25</v>
+      <c r="A33">
+        <v>795</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>0</v>
+      <c r="A34">
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35">
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>26</v>
+      <c r="A36">
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>27</v>
+      <c r="A37">
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>28</v>
+      <c r="A38">
+        <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>29</v>
+      <c r="A39">
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>30</v>
+      <c r="A40">
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>31</v>
+      <c r="A41">
+        <v>750</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>32</v>
+      <c r="A42">
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>33</v>
+      <c r="A43">
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>0</v>
+      <c r="A44">
+        <v>776</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1</v>
+      <c r="A45">
+        <v>792</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>24</v>
+      <c r="A46">
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>25</v>
+      <c r="A47">
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>34</v>
+      <c r="A48">
+        <v>779</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>35</v>
+      <c r="A49">
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>32</v>
+      <c r="A50">
+        <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>33</v>
+      <c r="A51">
+        <v>778</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>32</v>
+      <c r="A52">
+        <v>768</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>33</v>
+      <c r="A53">
+        <v>754</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>36</v>
+      <c r="A54">
+        <v>755</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>37</v>
+      <c r="A55">
+        <v>771</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>34</v>
+      <c r="A56">
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>35</v>
+      <c r="A57">
+        <v>775</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>38</v>
+      <c r="A58">
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>39</v>
+      <c r="A59">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/thermo_calibration.xlsx
+++ b/thermo_calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria/Documents/InternetOfThings/Software-Engineering-of-Internet-of-Things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C4F023-DA64-2F40-946B-24D046C95DAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D55B61-F63D-594F-A743-504AB642F2E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{BD8A5CAC-F659-A448-86F2-E933CF154474}"/>
   </bookViews>
@@ -271,9 +271,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-12</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>22.3</c:v>
                 </c:pt>
@@ -289,9 +286,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>558.27586206896547</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>695.75</c:v>
                 </c:pt>
@@ -687,9 +681,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>21.6</c:v>
                 </c:pt>
@@ -705,9 +696,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>583.56097560975604</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>678.14634146341461</c:v>
                 </c:pt>
@@ -2433,7 +2421,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2446,16 +2434,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>frozen_device1!C2</f>
-        <v>-12</v>
-      </c>
-      <c r="B2">
-        <f>frozen_device1!D2</f>
-        <v>558.27586206896547</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>room_device1!C2</f>
@@ -2482,16 +2460,6 @@
       </c>
       <c r="B20" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f>frozen_device2!C2</f>
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <f>frozen_device2!D2</f>
-        <v>583.56097560975604</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">

--- a/thermo_calibration.xlsx
+++ b/thermo_calibration.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria/Documents/InternetOfThings/Software-Engineering-of-Internet-of-Things/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D55B61-F63D-594F-A743-504AB642F2E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50062869-81D1-2347-9CB7-902FAF3993F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{BD8A5CAC-F659-A448-86F2-E933CF154474}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{BD8A5CAC-F659-A448-86F2-E933CF154474}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="frozen_device1" sheetId="7" r:id="rId2"/>
-    <sheet name="room_device1" sheetId="4" r:id="rId3"/>
-    <sheet name="hand_device1" sheetId="2" r:id="rId4"/>
-    <sheet name="frozen_device2" sheetId="9" r:id="rId5"/>
-    <sheet name="room_device2" sheetId="6" r:id="rId6"/>
-    <sheet name="hand_device2" sheetId="8" r:id="rId7"/>
+    <sheet name="hot water" sheetId="10" r:id="rId2"/>
+    <sheet name="frozen_device1" sheetId="7" r:id="rId3"/>
+    <sheet name="room_device1" sheetId="4" r:id="rId4"/>
+    <sheet name="hand_device1" sheetId="2" r:id="rId5"/>
+    <sheet name="frozen_device2" sheetId="9" r:id="rId6"/>
+    <sheet name="room_device2" sheetId="6" r:id="rId7"/>
+    <sheet name="hand_device2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Real</t>
   </si>
@@ -52,6 +53,21 @@
   </si>
   <si>
     <t>pycom</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>thermometer</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>formula</t>
   </si>
 </sst>
 </file>
@@ -90,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +162,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>device1 (dark</a:t>
+              <a:t>Device</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> one</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> (dark</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -215,6 +240,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -231,8 +314,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2150043744531933E-3"/>
-                  <c:y val="0.15386045494313216"/>
+                  <c:x val="-4.8722659667541557E-3"/>
+                  <c:y val="0.20331000291630213"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -289,7 +372,7 @@
                 <c:pt idx="1">
                   <c:v>695.75</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00">
                   <c:v>785.96428571428567</c:v>
                 </c:pt>
               </c:numCache>
@@ -303,8 +386,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -317,6 +401,7 @@
         <c:axId val="613087135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -334,6 +419,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>real temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -379,6 +519,8 @@
         <c:axId val="566836095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="790"/>
+          <c:min val="670"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -396,6 +538,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>device</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> measurement [millivolts]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -445,37 +647,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -555,7 +726,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>device2 (light</a:t>
+              <a:t>Device two (light</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -625,6 +796,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -641,8 +870,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2150043744531933E-3"/>
-                  <c:y val="0.15386045494313216"/>
+                  <c:x val="3.007130358705162E-2"/>
+                  <c:y val="0.17352252843394575"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -694,7 +923,7 @@
             <c:numRef>
               <c:f>Sheet5!$B$21:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
                   <c:v>678.14634146341461</c:v>
@@ -713,8 +942,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -727,6 +957,7 @@
         <c:axId val="613087135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -744,6 +975,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>real temperature [°C] </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -789,6 +1075,8 @@
         <c:axId val="566836095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="790"/>
+          <c:min val="670"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -806,6 +1094,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>device</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> measurement [millivolts}</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -855,8 +1203,90 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Real data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -870,7 +1300,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -885,7 +1315,2014 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hot water'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hot water'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-7C73-1B45-B85F-80FDAB6A807E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hot water'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hot water'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-7C73-1B45-B85F-80FDAB6A807E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1921932367"/>
+        <c:axId val="1965661727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1921932367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time [minutes]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1965661727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1965661727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921932367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Device data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hot water'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hot water'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>982.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>978.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>978.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>966.79989999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>955.29989999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>880.99990000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>902.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>859.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>886.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>813.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>849.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>831.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>826.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>820.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>791.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>783.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>779.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>787.59990000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>764.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>750.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>704.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>734.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>729.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>705.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>693.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>692.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-030A-B54D-AA4B-F5FDFEBBE49D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1921932367"/>
+        <c:axId val="1965661727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1921932367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time [minutes]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1965661727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1965661727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="650"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measurement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [millivolts</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921932367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relation device and real data </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15619772528433945"/>
+                  <c:y val="6.9050743657042876E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hot water'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hot water'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>982.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>978.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>978.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>966.79989999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>955.29989999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>880.99990000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>902.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>859.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>886.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>813.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>849.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>831.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>826.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>820.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>791.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>783.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>779.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>787.59990000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>764.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>750.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>704.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>734.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>729.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>705.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>693.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>692.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8193-014A-9CB2-0C39C006B8B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1922293919"/>
+        <c:axId val="1922408655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1922293919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Real temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922408655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1922408655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="650"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Device data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>millivolts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922293919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1010,6 +3447,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1527,6 +4084,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2113,6 +6218,121 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7DE9CF-7BAF-AB49-868F-34BEB24584B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35363E19-1FF0-FC42-ACF9-F559EF060A8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B616DE1F-51F4-434A-9FC2-EA0955203287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2420,11 +6640,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3D1F76-B87A-5E4E-B789-90608C48598E}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2449,7 +6672,7 @@
         <f>hand_device1!C2</f>
         <v>32.6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>hand_device1!D2</f>
         <v>785.96428571428567</v>
       </c>
@@ -2467,7 +6690,7 @@
         <f>room_device2!C2</f>
         <v>21.6</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <f>room_device2!D2</f>
         <v>678.14634146341461</v>
       </c>
@@ -2477,7 +6700,7 @@
         <f>hand_device2!C2</f>
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <f>hand_device2!D2</f>
         <v>771.78048780487802</v>
       </c>
@@ -2489,11 +6712,446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D21B000-E8FC-5041-9796-832EFE7FB83B}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>62.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>982.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>61.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>978.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>60.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>978.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>58.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>966.79989999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>955.29989999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>50.1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>880.99990000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>49.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>902.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>48.1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>859.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>886.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>40.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>813.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>849.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>831.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>39.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>826.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C16" s="1">
+        <v>820.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C17" s="1">
+        <v>791.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>34.9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>783.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>779.5</v>
+      </c>
+      <c r="D20" s="1">
+        <f>(C20-500.28)/7.925</f>
+        <v>35.232807570977926</v>
+      </c>
+      <c r="E20" s="1">
+        <v>33.940469999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>34.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>787.59990000000005</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:D31" si="0">(C21-500.28)/7.925</f>
+        <v>36.254876971608844</v>
+      </c>
+      <c r="E21" s="1">
+        <v>34.926639999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>33.9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>764.4</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>33.327444794952683</v>
+      </c>
+      <c r="E23" s="1">
+        <v>32.102029999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>33.9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>750.7</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>31.598738170347012</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30.43404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>29.6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>704.4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>25.756466876971611</v>
+      </c>
+      <c r="E25" s="1">
+        <v>24.796980000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>29.4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>734.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>29.554574132492117</v>
+      </c>
+      <c r="E26" s="1">
+        <v>28.461680000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>29.4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>727.2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>28.633438485804426</v>
+      </c>
+      <c r="E27" s="1">
+        <v>27.572900000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>29.1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>729.9</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>28.974132492113565</v>
+      </c>
+      <c r="E28" s="1">
+        <v>27.901630000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>25.4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>705.1</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>25.844794952681394</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24.882200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>25.4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>693.8</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>24.418927444794949</v>
+      </c>
+      <c r="E30" s="1">
+        <v>23.506419999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>25.4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>692.5</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>24.254889589905368</v>
+      </c>
+      <c r="E31" s="1">
+        <v>23.34815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8C7671-8A4B-4744-905F-AC70C599473A}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2835,12 +7493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C599BC-E709-CA42-852B-55AE2DCD73C0}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3192,12 +7850,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE5F960-B01F-D042-8FEF-93C31E03C0A5}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3534,11 +8192,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E7718B-EE2B-5F4E-8DA5-4421C1FE28F7}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:A69"/>
     </sheetView>
   </sheetViews>
@@ -3914,7 +8572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72541E9-BF07-0C45-9904-080C3D96BF7B}">
   <dimension ref="A1:E69"/>
   <sheetViews>
@@ -4294,7 +8952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F98B6F0-7A1C-624B-A60A-90528C9E1FCF}">
   <dimension ref="A1:E69"/>
   <sheetViews>
